--- a/data/trans_bre/Predimed_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R3-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.5704516267539206</v>
+        <v>-0.5704516267539234</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.03480051143193966</v>
+        <v>-0.03480051143193983</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.144248240564925</v>
+        <v>-4.778123992923661</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.2211947289639123</v>
+        <v>-0.2499130151147109</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.094755132259399</v>
+        <v>2.97966829297591</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.2241039948229466</v>
+        <v>0.2210870198855383</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.683959887115203</v>
+        <v>2.683959887115209</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1659580513241913</v>
+        <v>0.1659580513241917</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2098672428404303</v>
+        <v>0.3021243305568151</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01212220055607094</v>
+        <v>0.01221962240288982</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.012904996707658</v>
+        <v>4.961276621409731</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.339782318588008</v>
+        <v>0.3360131769189185</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.4091406275174819</v>
+        <v>-0.4091406275174875</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.01792510994943984</v>
+        <v>-0.01792510994944008</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.874568209224889</v>
+        <v>-4.894339725267388</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1868765912866299</v>
+        <v>-0.1939667545940922</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.091705690446566</v>
+        <v>3.936598195269023</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.2114968396374464</v>
+        <v>0.2007344495844792</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.599474384773378</v>
+        <v>-0.5361270359458941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0309473534820931</v>
+        <v>-0.02922434265528858</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.184062265931363</v>
+        <v>3.149941610806955</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.195673360444894</v>
+        <v>0.1887787590160395</v>
       </c>
     </row>
     <row r="16">
